--- a/output/unique_destinations_globally.xlsx
+++ b/output/unique_destinations_globally.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>origin_airport</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>latitude_first_waypoint</t>
+  </si>
+  <si>
+    <t>duration_hours</t>
   </si>
   <si>
     <t>CYYZ</t>
@@ -1124,13 +1127,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,18 +1143,24 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2">
         <v>58.531335</v>
       </c>
       <c r="C2">
         <v>38.49884</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>-79.63059997559999</v>
@@ -1159,10 +1168,13 @@
       <c r="C3">
         <v>43.6772003174</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3.21541</v>
@@ -1170,10 +1182,13 @@
       <c r="C4">
         <v>36.691002</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>-0.1667860001325607</v>
@@ -1181,10 +1196,13 @@
       <c r="C5">
         <v>5.605189800262451</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>10.22719955444336</v>
@@ -1192,10 +1210,13 @@
       <c r="C6">
         <v>36.85100173950195</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>4.48443984985</v>
@@ -1203,10 +1224,13 @@
       <c r="C7">
         <v>50.9014015198</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>5.443219999999999</v>
@@ -1214,10 +1238,13 @@
       <c r="C8">
         <v>50.637402</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>13.493889</v>
@@ -1225,10 +1252,13 @@
       <c r="C9">
         <v>52.351389</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>8.570556</v>
@@ -1236,10 +1266,13 @@
       <c r="C10">
         <v>50.033333</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>9.98823</v>
@@ -1247,10 +1280,13 @@
       <c r="C11">
         <v>53.630402</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>7.1427397728</v>
@@ -1258,10 +1294,13 @@
       <c r="C12">
         <v>50.8658981323</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>6.766780000000001</v>
@@ -1269,10 +1308,13 @@
       <c r="C13">
         <v>51.289501</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>11.7861</v>
@@ -1280,10 +1322,13 @@
       <c r="C14">
         <v>48.353802</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>12.236389</v>
@@ -1291,10 +1336,13 @@
       <c r="C15">
         <v>51.423889</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>24.963301</v>
@@ -1302,10 +1350,13 @@
       <c r="C16">
         <v>60.3172</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>-1.74802994728</v>
@@ -1313,10 +1364,13 @@
       <c r="C17">
         <v>52.4538993835</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>-2.279521</v>
@@ -1324,10 +1378,13 @@
       <c r="C18">
         <v>53.349375</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>-0.3683330118656158</v>
@@ -1335,10 +1392,13 @@
       <c r="C19">
         <v>51.87469863891602</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>-0.190278</v>
@@ -1346,10 +1406,13 @@
       <c r="C20">
         <v>51.148102</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>-0.461941</v>
@@ -1357,10 +1420,13 @@
       <c r="C21">
         <v>51.4706</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>-1.69167</v>
@@ -1368,10 +1434,13 @@
       <c r="C22">
         <v>55.037498</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>-4.43306</v>
@@ -1379,10 +1448,13 @@
       <c r="C23">
         <v>55.871899</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0.234999999404</v>
@@ -1390,10 +1462,13 @@
       <c r="C24">
         <v>51.8849983215</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>4.76389</v>
@@ -1401,10 +1476,13 @@
       <c r="C25">
         <v>52.308601</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>-6.27007</v>
@@ -1412,10 +1490,13 @@
       <c r="C26">
         <v>53.421299</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>12.656000137329</v>
@@ -1423,10 +1504,13 @@
       <c r="C27">
         <v>55.617900848389</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>6.204312</v>
@@ -1434,10 +1518,13 @@
       <c r="C28">
         <v>49.623825</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>11.113063</v>
@@ -1445,10 +1532,13 @@
       <c r="C29">
         <v>60.184874</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>19.7848</v>
@@ -1456,10 +1546,13 @@
       <c r="C30">
         <v>50.077702</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>19.08</v>
@@ -1467,10 +1560,13 @@
       <c r="C31">
         <v>50.4743</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>20.9671001434</v>
@@ -1478,10 +1574,13 @@
       <c r="C32">
         <v>52.1656990051</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>17.918600082397</v>
@@ -1489,10 +1588,13 @@
       <c r="C33">
         <v>59.651901245117</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>23.97109985351562</v>
@@ -1500,10 +1602,13 @@
       <c r="C34">
         <v>56.92359924316406</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>18.6016998291</v>
@@ -1511,10 +1616,13 @@
       <c r="C35">
         <v>-33.9648017883</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>9.220000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>31.1197222222</v>
@@ -1522,10 +1630,13 @@
       <c r="C36">
         <v>-29.6144444444</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>28.246</v>
@@ -1533,10 +1644,13 @@
       <c r="C37">
         <v>-26.1392</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>57.683601</v>
@@ -1544,10 +1658,13 @@
       <c r="C38">
         <v>-20.430201</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>32.92867726</v>
@@ -1555,10 +1672,13 @@
       <c r="C39">
         <v>-11.95907593</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>13.2312</v>
@@ -1566,10 +1686,13 @@
       <c r="C40">
         <v>-8.858369999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>55.521801</v>
@@ -1577,10 +1700,13 @@
       <c r="C41">
         <v>-4.67434</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>-7.589970111846924</v>
@@ -1588,10 +1714,13 @@
       <c r="C42">
         <v>33.36750030517578</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>-17.073333</v>
@@ -1599,10 +1728,13 @@
       <c r="C43">
         <v>14.67</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>38.799301</v>
@@ -1610,10 +1742,13 @@
       <c r="C44">
         <v>8.977889999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>44.082389</v>
@@ -1621,10 +1756,13 @@
       <c r="C45">
         <v>9.513207</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>45.3046989440918</v>
@@ -1632,10 +1770,13 @@
       <c r="C46">
         <v>2.014440059661865</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>43.1595</v>
@@ -1643,10 +1784,13 @@
       <c r="C47">
         <v>11.5473</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>29.694401</v>
@@ -1654,10 +1798,13 @@
       <c r="C48">
         <v>30.916153</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>31.40559959411621</v>
@@ -1665,10 +1812,13 @@
       <c r="C49">
         <v>30.12190055847168</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>34.395</v>
@@ -1676,10 +1826,13 @@
       <c r="C50">
         <v>27.977301</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>38.91070175170898</v>
@@ -1687,10 +1840,13 @@
       <c r="C51">
         <v>15.29189968109131</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>31.601101</v>
@@ -1698,10 +1854,13 @@
       <c r="C52">
         <v>4.87201</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>36.9277992249</v>
@@ -1709,10 +1868,13 @@
       <c r="C53">
         <v>-1.31923997402</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>30.1395</v>
@@ -1720,10 +1882,13 @@
       <c r="C54">
         <v>-1.96863</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>51.09902217</v>
@@ -1731,10 +1896,13 @@
       <c r="C55">
         <v>13.53410339</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>46.926778</v>
@@ -1742,10 +1910,13 @@
       <c r="C56">
         <v>23.151405</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>39.202599</v>
@@ -1753,10 +1924,13 @@
       <c r="C57">
         <v>-6.87811</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>39.224899</v>
@@ -1764,10 +1938,13 @@
       <c r="C58">
         <v>-6.22202</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>32.443501</v>
@@ -1775,10 +1952,13 @@
       <c r="C59">
         <v>0.042386</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>-68.828102</v>
@@ -1786,10 +1966,13 @@
       <c r="C60">
         <v>44.8074</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>-71.00520300000001</v>
@@ -1797,10 +1980,13 @@
       <c r="C61">
         <v>42.3643</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>-97.03800200000001</v>
@@ -1808,10 +1994,13 @@
       <c r="C62">
         <v>32.896801</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>-74.168701</v>
@@ -1819,10 +2008,13 @@
       <c r="C63">
         <v>40.692501</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>-77.455803</v>
@@ -1830,10 +2022,13 @@
       <c r="C64">
         <v>38.9445</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>-95.34140014648438</v>
@@ -1841,10 +2036,13 @@
       <c r="C65">
         <v>29.98439979553223</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>-73.77889999999999</v>
@@ -1852,10 +2050,13 @@
       <c r="C66">
         <v>40.639801</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>-118.407997</v>
@@ -1863,10 +2064,13 @@
       <c r="C67">
         <v>33.942501</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>-82.927803</v>
@@ -1874,10 +2078,13 @@
       <c r="C68">
         <v>39.813801</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>-81.30899810791016</v>
@@ -1885,10 +2092,13 @@
       <c r="C69">
         <v>28.42939949035645</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>-89.97669982910156</v>
@@ -1896,10 +2106,13 @@
       <c r="C70">
         <v>35.04240036010742</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>13.67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>-80.29060363769531</v>
@@ -1907,10 +2120,13 @@
       <c r="C71">
         <v>25.79319953918457</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>-87.90479999999999</v>
@@ -1918,10 +2134,13 @@
       <c r="C72">
         <v>41.9786</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>-75.24109649658203</v>
@@ -1929,10 +2148,13 @@
       <c r="C73">
         <v>39.87189865112305</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>-85.736</v>
@@ -1940,10 +2162,13 @@
       <c r="C74">
         <v>38.1744</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>-122.308998</v>
@@ -1951,10 +2176,13 @@
       <c r="C75">
         <v>47.449001</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>-122.375</v>
@@ -1962,10 +2190,13 @@
       <c r="C76">
         <v>37.61899948120117</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>19.7206001282</v>
@@ -1973,10 +2204,13 @@
       <c r="C77">
         <v>41.4146995544</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>23.41143608093261</v>
@@ -1984,10 +2218,13 @@
       <c r="C78">
         <v>42.69669342041016</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>33.624901</v>
@@ -1995,10 +2232,13 @@
       <c r="C79">
         <v>34.875099</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>16.0687999725</v>
@@ -2006,10 +2246,13 @@
       <c r="C80">
         <v>45.74290084840001</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
         <v>2.07846</v>
@@ -2017,10 +2260,13 @@
       <c r="C81">
         <v>41.2971</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>-3.56264</v>
@@ -2028,10 +2274,13 @@
       <c r="C82">
         <v>40.471926</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>-1.04155</v>
@@ -2039,10 +2288,13 @@
       <c r="C83">
         <v>41.666199</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>1.36382</v>
@@ -2050,10 +2302,13 @@
       <c r="C84">
         <v>43.629101</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
         <v>5.081111</v>
@@ -2061,10 +2316,13 @@
       <c r="C85">
         <v>45.725556</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>7.215869903560001</v>
@@ -2072,10 +2330,13 @@
       <c r="C86">
         <v>43.6584014893</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
         <v>2.55</v>
@@ -2083,10 +2344,13 @@
       <c r="C87">
         <v>49.012798</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
         <v>7.529167</v>
@@ -2094,10 +2358,13 @@
       <c r="C88">
         <v>47.59</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>23.972467</v>
@@ -2105,10 +2372,13 @@
       <c r="C89">
         <v>37.9539</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>19.261093</v>
@@ -2116,10 +2386,13 @@
       <c r="C90">
         <v>47.42976</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>15.0664</v>
@@ -2127,10 +2400,13 @@
       <c r="C91">
         <v>37.466801</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
         <v>8.728110000000001</v>
@@ -2138,10 +2414,13 @@
       <c r="C92">
         <v>45.6306</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
         <v>11.2887</v>
@@ -2149,10 +2428,13 @@
       <c r="C93">
         <v>44.5354</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
         <v>12.3519</v>
@@ -2160,10 +2442,13 @@
       <c r="C94">
         <v>45.505299</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
         <v>12.251998</v>
@@ -2171,10 +2456,13 @@
       <c r="C95">
         <v>41.804532</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>14.2908</v>
@@ -2182,10 +2470,13 @@
       <c r="C96">
         <v>40.886002</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
         <v>14.4576</v>
@@ -2193,10 +2484,13 @@
       <c r="C97">
         <v>46.223701</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
         <v>14.26</v>
@@ -2204,10 +2498,13 @@
       <c r="C98">
         <v>50.1008</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>34.851828</v>
@@ -2215,10 +2512,13 @@
       <c r="C99">
         <v>32.03036</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>14.177278</v>
@@ -2226,10 +2526,13 @@
       <c r="C100">
         <v>48.232867</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
         <v>13.0043001175</v>
@@ -2237,10 +2540,13 @@
       <c r="C101">
         <v>47.7933006287</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>16.5697</v>
@@ -2248,10 +2554,13 @@
       <c r="C102">
         <v>48.110298</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>-9.13592</v>
@@ -2259,10 +2568,13 @@
       <c r="C103">
         <v>38.7813</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>18.331499</v>
@@ -2270,10 +2582,13 @@
       <c r="C104">
         <v>43.8246</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105">
         <v>23.686199</v>
@@ -2281,10 +2596,13 @@
       <c r="C105">
         <v>46.785198</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106">
         <v>26.085</v>
@@ -2292,10 +2610,13 @@
       <c r="C106">
         <v>44.5711111</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>6.108950138092041</v>
@@ -2303,10 +2624,13 @@
       <c r="C107">
         <v>46.23809814453125</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>8.549775</v>
@@ -2314,10 +2638,13 @@
       <c r="C108">
         <v>47.460018</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>33.023865</v>
@@ -2325,10 +2652,13 @@
       <c r="C109">
         <v>40.156906</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110">
         <v>30.800501</v>
@@ -2336,10 +2666,13 @@
       <c r="C110">
         <v>36.898701</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>28.823714</v>
@@ -2347,10 +2680,13 @@
       <c r="C111">
         <v>40.971913</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>39.7897</v>
@@ -2358,10 +2694,13 @@
       <c r="C112">
         <v>40.995098</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>27.6643009186</v>
@@ -2369,10 +2708,13 @@
       <c r="C113">
         <v>37.25059890749999</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>29.3092</v>
@@ -2380,10 +2722,13 @@
       <c r="C114">
         <v>40.898602</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B115">
         <v>28.741951</v>
@@ -2391,10 +2736,13 @@
       <c r="C115">
         <v>41.261297</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116">
         <v>20.3090991974</v>
@@ -2402,10 +2750,13 @@
       <c r="C116">
         <v>44.8184013367</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117">
         <v>17.21269989013672</v>
@@ -2413,10 +2764,13 @@
       <c r="C117">
         <v>48.17020034790039</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118">
         <v>47.198982</v>
@@ -2424,10 +2778,13 @@
       <c r="C118">
         <v>35.676132</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119">
         <v>50.63764</v>
@@ -2435,10 +2792,13 @@
       <c r="C119">
         <v>26.267295</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <v>38.1288888889</v>
@@ -2446,10 +2806,13 @@
       <c r="C120">
         <v>26.48</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121">
         <v>49.79790115356445</v>
@@ -2457,10 +2820,13 @@
       <c r="C121">
         <v>26.47120094299316</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122">
         <v>50.152</v>
@@ -2468,10 +2834,13 @@
       <c r="C122">
         <v>26.2654</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B123">
         <v>43.77439880371094</v>
@@ -2479,10 +2848,13 @@
       <c r="C123">
         <v>26.30279922485352</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124">
         <v>39.156502</v>
@@ -2490,10 +2862,13 @@
       <c r="C124">
         <v>21.6796</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125">
         <v>39.705101</v>
@@ -2501,10 +2876,13 @@
       <c r="C125">
         <v>24.5534</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B126">
         <v>46.703088</v>
@@ -2512,10 +2890,13 @@
       <c r="C126">
         <v>24.926861</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127">
         <v>53.9802017212</v>
@@ -2523,10 +2904,13 @@
       <c r="C127">
         <v>26.5261993408</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B128">
         <v>51.86130142211914</v>
@@ -2534,10 +2918,13 @@
       <c r="C128">
         <v>32.75080108642578</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B129">
         <v>51.15219879150391</v>
@@ -2545,10 +2932,13 @@
       <c r="C129">
         <v>35.41609954833984</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130">
         <v>51.31340026855469</v>
@@ -2556,10 +2946,13 @@
       <c r="C130">
         <v>35.68920135498047</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131">
         <v>56.37779998779297</v>
@@ -2567,10 +2960,13 @@
       <c r="C131">
         <v>27.21829986572266</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132">
         <v>55.90235300000001</v>
@@ -2578,10 +2974,13 @@
       <c r="C132">
         <v>26.754639</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133">
         <v>59.673819</v>
@@ -2589,10 +2988,13 @@
       <c r="C133">
         <v>36.236774</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134">
         <v>54.383301</v>
@@ -2600,10 +3002,13 @@
       <c r="C134">
         <v>27.6747</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135">
         <v>52.589802</v>
@@ -2611,10 +3016,13 @@
       <c r="C135">
         <v>29.5392</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136">
         <v>35.9931983948</v>
@@ -2622,10 +3030,13 @@
       <c r="C136">
         <v>31.7226009369</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137">
         <v>47.96889877319336</v>
@@ -2633,10 +3044,13 @@
       <c r="C137">
         <v>29.22660064697266</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B138">
         <v>35.48839950561523</v>
@@ -2644,10 +3058,13 @@
       <c r="C138">
         <v>33.82089996337891</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139">
         <v>54.651718</v>
@@ -2655,10 +3072,13 @@
       <c r="C139">
         <v>24.443764</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B140">
         <v>55.3643989563</v>
@@ -2666,10 +3086,13 @@
       <c r="C140">
         <v>25.2527999878</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B141">
         <v>58.28440093994141</v>
@@ -2677,10 +3100,13 @@
       <c r="C141">
         <v>23.59329986572266</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B142">
         <v>54.09130096435547</v>
@@ -2688,10 +3114,13 @@
       <c r="C142">
         <v>17.03870010375977</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143">
         <v>56.400544</v>
@@ -2699,10 +3128,13 @@
       <c r="C143">
         <v>24.634886</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144">
         <v>72.99479675292969</v>
@@ -2710,10 +3142,13 @@
       <c r="C144">
         <v>31.36499977111816</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B145">
         <v>72.849541</v>
@@ -2721,10 +3156,13 @@
       <c r="C145">
         <v>33.544472</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146">
         <v>67.160797</v>
@@ -2732,10 +3170,13 @@
       <c r="C146">
         <v>24.9065</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B147">
         <v>74.40282000000001</v>
@@ -2743,10 +3184,13 @@
       <c r="C147">
         <v>31.531786</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B148">
         <v>71.41909790039062</v>
@@ -2754,10 +3198,13 @@
       <c r="C148">
         <v>30.20319938659668</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B149">
         <v>71.368253</v>
@@ -2765,10 +3212,13 @@
       <c r="C149">
         <v>33.835831</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150">
         <v>66.93779754638672</v>
@@ -2776,10 +3226,13 @@
       <c r="C150">
         <v>30.25139999389648</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B151">
         <v>74.36389200000001</v>
@@ -2787,10 +3240,13 @@
       <c r="C151">
         <v>32.535557</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152">
         <v>42.4412002563</v>
@@ -2798,10 +3254,13 @@
       <c r="C152">
         <v>33.7855987549</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B153">
         <v>44.2346</v>
@@ -2809,10 +3268,13 @@
       <c r="C153">
         <v>33.262501</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B154">
         <v>43.96319961547852</v>
@@ -2820,10 +3282,13 @@
       <c r="C154">
         <v>36.23759841918945</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B155">
         <v>47.662102</v>
@@ -2831,10 +3296,13 @@
       <c r="C155">
         <v>30.549101</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B156">
         <v>44.404317</v>
@@ -2842,10 +3310,13 @@
       <c r="C156">
         <v>31.989853</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B157">
         <v>45.3167381287</v>
@@ -2853,10 +3324,13 @@
       <c r="C157">
         <v>35.5617485046</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B158">
         <v>36.51559829711914</v>
@@ -2864,10 +3338,13 @@
       <c r="C158">
         <v>33.4114990234375</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B159">
         <v>51.608056</v>
@@ -2875,10 +3352,13 @@
       <c r="C159">
         <v>25.273056</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B160">
         <v>-149.996002</v>
@@ -2886,10 +3366,13 @@
       <c r="C160">
         <v>61.1744</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B161">
         <v>121.233002</v>
@@ -2897,10 +3380,13 @@
       <c r="C161">
         <v>25.0777</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B162">
         <v>140.386002</v>
@@ -2908,10 +3394,13 @@
       <c r="C162">
         <v>35.764702</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B163">
         <v>135.244003</v>
@@ -2919,10 +3408,13 @@
       <c r="C163">
         <v>34.427299</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B164">
         <v>139.779999</v>
@@ -2930,10 +3422,13 @@
       <c r="C164">
         <v>35.552299</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B165">
         <v>126.4509963989258</v>
@@ -2941,10 +3436,13 @@
       <c r="C165">
         <v>37.46910095214844</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B166">
         <v>120.559998</v>
@@ -2952,10 +3450,13 @@
       <c r="C166">
         <v>15.186</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B167">
         <v>121.019997</v>
@@ -2963,10 +3464,13 @@
       <c r="C167">
         <v>14.5086</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B168">
         <v>125.646004</v>
@@ -2974,10 +3478,13 @@
       <c r="C168">
         <v>7.12552</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B169">
         <v>-46.467778</v>
@@ -2985,10 +3492,13 @@
       <c r="C169">
         <v>-23.431944</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B170">
         <v>77.045075</v>
@@ -2996,10 +3506,13 @@
       <c r="C170">
         <v>43.354889</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B171">
         <v>71.466904</v>
@@ -3007,10 +3520,13 @@
       <c r="C171">
         <v>51.022202</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B172">
         <v>69.47889709472656</v>
@@ -3018,10 +3534,13 @@
       <c r="C172">
         <v>42.36420059204102</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B173">
         <v>68.549881</v>
@@ -3029,10 +3548,13 @@
       <c r="C173">
         <v>43.313126</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B174">
         <v>50.04669952392578</v>
@@ -3040,10 +3562,13 @@
       <c r="C174">
         <v>40.46749877929688</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B175">
         <v>74.47760009770001</v>
@@ -3051,10 +3576,13 @@
       <c r="C175">
         <v>43.0612983704</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B176">
         <v>44.372803</v>
@@ -3062,10 +3590,13 @@
       <c r="C176">
         <v>40.147202</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B177">
         <v>44.95470047</v>
@@ -3073,10 +3604,13 @@
       <c r="C177">
         <v>41.6692008972</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B178">
         <v>135.188588</v>
@@ -3084,10 +3618,13 @@
       <c r="C178">
         <v>48.528338</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B179">
         <v>132.148155</v>
@@ -3095,10 +3632,13 @@
       <c r="C179">
         <v>43.396256</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B180">
         <v>104.389</v>
@@ -3106,10 +3646,13 @@
       <c r="C180">
         <v>52.268002</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B181">
         <v>30.89469909667969</v>
@@ -3117,10 +3660,13 @@
       <c r="C181">
         <v>50.34500122070313</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B182">
         <v>30.6765</v>
@@ -3128,10 +3674,13 @@
       <c r="C182">
         <v>46.4268</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B183">
         <v>30.26250076293945</v>
@@ -3139,10 +3688,13 @@
       <c r="C183">
         <v>59.80030059814453</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B184">
         <v>28.039964</v>
@@ -3150,10 +3702,13 @@
       <c r="C184">
         <v>53.888071</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B185">
         <v>92.492437</v>
@@ -3161,10 +3716,13 @@
       <c r="C185">
         <v>56.173077</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B186">
         <v>82.596463</v>
@@ -3172,10 +3730,13 @@
       <c r="C186">
         <v>55.007335</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B187">
         <v>39.170501708984</v>
@@ -3183,10 +3744,13 @@
       <c r="C187">
         <v>45.034698486328</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B188">
         <v>45.698601</v>
@@ -3194,10 +3758,13 @@
       <c r="C188">
         <v>43.388302</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B189">
         <v>47.652302</v>
@@ -3205,10 +3772,13 @@
       <c r="C189">
         <v>42.816799</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B190">
         <v>43.08190155029297</v>
@@ -3216,10 +3786,13 @@
       <c r="C190">
         <v>44.22510147094727</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B191">
         <v>39.924722</v>
@@ -3227,10 +3800,13 @@
       <c r="C191">
         <v>47.493888</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B192">
         <v>56.010604</v>
@@ -3238,10 +3814,13 @@
       <c r="C192">
         <v>57.908615</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B193">
         <v>60.802700042725</v>
@@ -3249,10 +3828,13 @@
       <c r="C193">
         <v>56.743099212646</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B194">
         <v>68.8249969482</v>
@@ -3260,10 +3842,13 @@
       <c r="C194">
         <v>38.5433006287</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B195">
         <v>65.032633</v>
@@ -3271,10 +3856,13 @@
       <c r="C195">
         <v>40.108198</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B196">
         <v>64.484009</v>
@@ -3282,10 +3870,13 @@
       <c r="C196">
         <v>39.782984</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B197">
         <v>69.2811965942</v>
@@ -3293,10 +3884,13 @@
       <c r="C197">
         <v>41.257900238</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B198">
         <v>38.150002</v>
@@ -3304,10 +3898,13 @@
       <c r="C198">
         <v>55.553299</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B199">
         <v>37.90629959106445</v>
@@ -3315,10 +3912,13 @@
       <c r="C199">
         <v>55.40879821777344</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B200">
         <v>37.4146</v>
@@ -3326,10 +3926,13 @@
       <c r="C200">
         <v>55.972599</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B201">
         <v>37.2615013123</v>
@@ -3337,10 +3940,13 @@
       <c r="C201">
         <v>55.5914993286</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B202">
         <v>49.278701782227</v>
@@ -3348,10 +3954,13 @@
       <c r="C202">
         <v>55.606201171875</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B203">
         <v>55.874401092529</v>
@@ -3359,10 +3968,13 @@
       <c r="C203">
         <v>54.55749893188501</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B204">
         <v>50.16429901123</v>
@@ -3370,10 +3982,13 @@
       <c r="C204">
         <v>53.504901885986</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B205">
         <v>72.63469696039998</v>
@@ -3381,10 +3996,13 @@
       <c r="C205">
         <v>23.0771999359</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B206">
         <v>72.8678970337</v>
@@ -3392,10 +4010,13 @@
       <c r="C206">
         <v>19.0886993408</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B207">
         <v>75.8011016846</v>
@@ -3403,10 +4024,13 @@
       <c r="C207">
         <v>22.7217998505</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B208">
         <v>79.88410186767578</v>
@@ -3414,10 +4038,13 @@
       <c r="C208">
         <v>7.180759906768799</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B209">
         <v>104.844002</v>
@@ -3425,10 +4052,13 @@
       <c r="C209">
         <v>11.5466</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B210">
         <v>88.44670104980469</v>
@@ -3436,10 +4066,13 @@
       <c r="C210">
         <v>22.65469932556152</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B211">
         <v>91.813301</v>
@@ -3447,10 +4080,13 @@
       <c r="C211">
         <v>22.249599</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B212">
         <v>90.397783</v>
@@ -3458,10 +4094,13 @@
       <c r="C212">
         <v>23.843347</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B213">
         <v>113.915001</v>
@@ -3469,10 +4108,13 @@
       <c r="C213">
         <v>22.308901</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B214">
         <v>74.797302</v>
@@ -3480,10 +4122,13 @@
       <c r="C214">
         <v>31.7096</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B215">
         <v>77.10104699999999</v>
@@ -3491,10 +4136,13 @@
       <c r="C215">
         <v>28.563492</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B216">
         <v>75.79488499999999</v>
@@ -3502,10 +4150,13 @@
       <c r="C216">
         <v>26.82225</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B217">
         <v>80.88929748539999</v>
@@ -3513,10 +4164,13 @@
       <c r="C217">
         <v>26.7605991364</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B218">
         <v>85.3591</v>
@@ -3524,10 +4178,13 @@
       <c r="C218">
         <v>27.6966</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B219">
         <v>77.689961</v>
@@ -3535,10 +4192,13 @@
       <c r="C219">
         <v>13.207077</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B220">
         <v>76.401901</v>
@@ -3546,10 +4206,13 @@
       <c r="C220">
         <v>10.152</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B221">
         <v>75.955299</v>
@@ -3557,10 +4220,13 @@
       <c r="C221">
         <v>11.1368</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B222">
         <v>73.83139801029999</v>
@@ -3568,10 +4234,13 @@
       <c r="C222">
         <v>15.3808002472</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B223">
         <v>78.429855</v>
@@ -3579,10 +4248,13 @@
       <c r="C223">
         <v>17.231318</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="D223">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B224">
         <v>75.547211</v>
@@ -3590,10 +4262,13 @@
       <c r="C224">
         <v>11.918614</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B225">
         <v>78.09339904790002</v>
@@ -3601,10 +4276,13 @@
       <c r="C225">
         <v>9.834509849550001</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B226">
         <v>74.89009857180001</v>
@@ -3612,10 +4290,13 @@
       <c r="C226">
         <v>12.9612998962</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B227">
         <v>80.169296</v>
@@ -3623,10 +4304,13 @@
       <c r="C227">
         <v>12.990005</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B228">
         <v>78.704823</v>
@@ -3634,10 +4318,13 @@
       <c r="C228">
         <v>10.765182</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B229">
         <v>76.9200973511</v>
@@ -3645,10 +4332,13 @@
       <c r="C229">
         <v>8.482119560239999</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B230">
         <v>73.52909851074219</v>
@@ -3656,10 +4346,13 @@
       <c r="C230">
         <v>4.191830158233644</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B231">
         <v>100.607002258</v>
@@ -3667,10 +4360,13 @@
       <c r="C231">
         <v>13.9125995636</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B232">
         <v>100.7470016479492</v>
@@ -3678,10 +4374,13 @@
       <c r="C232">
         <v>13.6810998916626</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B233">
         <v>98.316902</v>
@@ -3689,10 +4388,13 @@
       <c r="C233">
         <v>8.113200000000001</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B234">
         <v>105.806999</v>
@@ -3700,10 +4402,13 @@
       <c r="C234">
         <v>21.221201</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B235">
         <v>106.652</v>
@@ -3711,10 +4416,13 @@
       <c r="C235">
         <v>10.8188</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B236">
         <v>96.1332015991</v>
@@ -3722,10 +4430,13 @@
       <c r="C236">
         <v>16.9073009491</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B237">
         <v>106.65599823</v>
@@ -3733,10 +4444,13 @@
       <c r="C237">
         <v>-6.1255698204</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B238">
         <v>101.70999908447</v>
@@ -3744,10 +4458,13 @@
       <c r="C238">
         <v>2.745579957962</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B239">
         <v>104.026562</v>
@@ -3755,10 +4472,13 @@
       <c r="C239">
         <v>1.302841</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B240">
         <v>153.1170043945312</v>
@@ -3766,10 +4486,13 @@
       <c r="C240">
         <v>-27.38419914245605</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="D240">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B241">
         <v>144.843002</v>
@@ -3777,10 +4500,13 @@
       <c r="C241">
         <v>-37.673302</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B242">
         <v>130.8769989013672</v>
@@ -3788,10 +4514,13 @@
       <c r="C242">
         <v>-12.41469955444336</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B243">
         <v>115.9670028686523</v>
@@ -3799,10 +4528,13 @@
       <c r="C243">
         <v>-31.94029998779297</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B244">
         <v>151.177001953125</v>
@@ -3810,10 +4542,13 @@
       <c r="C244">
         <v>-33.94609832763672</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B245">
         <v>116.5849990844727</v>
@@ -3821,10 +4556,13 @@
       <c r="C245">
         <v>40.0801010131836</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="D245">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B246">
         <v>113.299004</v>
@@ -3832,10 +4570,13 @@
       <c r="C246">
         <v>23.392401</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B247">
         <v>113.810997</v>
@@ -3843,10 +4584,13 @@
       <c r="C247">
         <v>22.639299</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B248">
         <v>106.819833</v>
@@ -3854,10 +4598,13 @@
       <c r="C248">
         <v>47.646916</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B249">
         <v>120.428865</v>
@@ -3865,16 +4612,22 @@
       <c r="C249">
         <v>30.23609</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B250">
         <v>106.651895</v>
       </c>
       <c r="C250">
         <v>29.712254</v>
+      </c>
+      <c r="D250">
+        <v>5.86</v>
       </c>
     </row>
   </sheetData>
